--- a/GARIBALDI.xlsx
+++ b/GARIBALDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{290A15E6-AC93-4D61-999A-0AB396CE5246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{084003B0-E451-4EB8-8CEE-92A0E3B64053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1068,7 +1055,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1128,36 +1115,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,14 +1159,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,7 +1207,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3358BCDC-6828-4EEC-85F3-9DC9BFA8CF08}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C0754147-55A5-43D3-BD2A-878AEB9FE682}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,10 +1237,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA6063D1-B7D7-49AF-8D47-B4D38655DB40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9A1225-E760-486B-9BF2-02A7B629E4F4}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1278,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D405CFB-A40D-4B91-806A-8E61DBA1D55C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3AC97F-21A1-4912-8625-6B8D0AB89A94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC52C69-F1E4-4C41-8B9D-274486B52DB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A091AD2C-162C-4A1A-A464-5A753AB89EA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1402,7 +1360,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31753FA4-65F5-48F6-5A72-5EC86D5C27F0}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D306849E-6FD5-5B00-CA74-2185F3A96216}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1451,7 +1409,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00024F7B-2164-91CB-4D59-8D440EAE6CF3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D7B2D0-36CF-6E41-5DFD-026897FCF815}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1470,7 +1428,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB489BE9-F833-0671-2AEF-435AEB292917}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA37E815-4B4A-7234-27C2-3CEB0A0C2A52}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1501,7 +1459,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{627F8568-5CCC-3270-12B0-156EBE26D99B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46F0C03-2724-6AE2-5F0F-EAC7D8AFC1B4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1532,7 +1490,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95681C7-0C9E-37F1-4003-5764BD886531}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF9F173-D657-F06D-A6C9-9C655C691E8B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1575,7 +1533,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90623383-3C44-440A-AEDA-50179B78B547}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9FED8F-7D16-4165-BC1D-47F64A281C07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1613,7 +1571,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38273BE-BAAB-4C99-9F85-A5B7076CBDDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA41FE5-6D4C-4708-AC06-CE53918ABDCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1614,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA3DA50-866A-4602-A66C-BB3861DF7168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F054FE-6CE4-42E4-BAC5-E0AB79B391DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA57BB68-A6F1-4F3C-BB29-9CB34AC61D51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83685517-9CA4-4411-AF14-7BB601302E81}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1981,98 +1939,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5340,19 +5298,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5375,46 +5333,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5439,54 +5397,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>290</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5497,41 +5456,41 @@
       <c r="B2" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45870</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>7197</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>982</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>298</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5562,25 +5521,24 @@
       <c r="B1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="32">
         <v>13</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="35">
-        <v>13</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>8.5967464621081863E-4</v>
       </c>
     </row>

--- a/GARIBALDI.xlsx
+++ b/GARIBALDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{084003B0-E451-4EB8-8CEE-92A0E3B64053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD190CE0-12CA-4418-B44C-5519D5209B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1207,7 +1207,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C0754147-55A5-43D3-BD2A-878AEB9FE682}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A928176E-61FB-4A65-9552-43A8397E6191}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1237,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE9A1225-E760-486B-9BF2-02A7B629E4F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51CAFB6-33BB-4C9D-AFBE-E2F9C8D901C8}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1278,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3AC97F-21A1-4912-8625-6B8D0AB89A94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4031B8A8-6083-428F-A629-E0B9F345633C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A091AD2C-162C-4A1A-A464-5A753AB89EA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EE4318-669D-411E-B69E-386CC53CA926}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1360,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D306849E-6FD5-5B00-CA74-2185F3A96216}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FF0B9E-7E3C-0B56-E572-7FE7D9C07439}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1409,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4D7B2D0-36CF-6E41-5DFD-026897FCF815}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF661F88-3E81-CDB7-10A7-936FEF1C79BB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA37E815-4B4A-7234-27C2-3CEB0A0C2A52}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B731CECC-1E02-1C7B-56C8-122411CCBE05}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1459,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E46F0C03-2724-6AE2-5F0F-EAC7D8AFC1B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0964E846-8D39-5C90-A0AE-67F0449ED289}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1490,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF9F173-D657-F06D-A6C9-9C655C691E8B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A602AA5-4A23-EA50-C82D-4639FD9D59F8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9FED8F-7D16-4165-BC1D-47F64A281C07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA65EBC-FF06-4822-94E6-7004D1310F5E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1571,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDA41FE5-6D4C-4708-AC06-CE53918ABDCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287E7B3D-E729-44D0-B057-8944B7098874}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1614,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F054FE-6CE4-42E4-BAC5-E0AB79B391DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213E0493-61C8-4620-BA1B-8EFBE1B5A888}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83685517-9CA4-4411-AF14-7BB601302E81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC36D08E-45A8-478B-BB30-910FBCC1917C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/GARIBALDI.xlsx
+++ b/GARIBALDI.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD190CE0-12CA-4418-B44C-5519D5209B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2C9D3C-BA86-4173-8644-CA055D03566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="300">
   <si>
     <t>COMARCA</t>
   </si>
@@ -926,15 +925,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>GARIBALDI</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,27 +1177,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A928176E-61FB-4A65-9552-43A8397E6191}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{556ED8F2-BDAA-408C-AAD6-199F9569E344}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B51CAFB6-33BB-4C9D-AFBE-E2F9C8D901C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4375F006-FD4A-4F8C-BF98-B34C239EDD62}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1278,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4031B8A8-6083-428F-A629-E0B9F345633C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EFEA84-38B9-4E48-B86B-825CE84393D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EE4318-669D-411E-B69E-386CC53CA926}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCE2EDE-6D73-4A84-9ECC-900C8B2CDEE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22FF0B9E-7E3C-0B56-E572-7FE7D9C07439}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B45C7C-C645-75DA-EDD0-1C5D57D2CD81}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1409,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF661F88-3E81-CDB7-10A7-936FEF1C79BB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBF9585-B737-9FB9-5F8B-5F0827A6F8A7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1428,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B731CECC-1E02-1C7B-56C8-122411CCBE05}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63AE6D80-FD98-F74F-EB22-53476A9D7759}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1459,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0964E846-8D39-5C90-A0AE-67F0449ED289}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CEC04D-AA82-4F89-4735-065BEA8BB1B4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1490,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A602AA5-4A23-EA50-C82D-4639FD9D59F8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6CC97F-B954-C63E-A2CE-4DCCF54A293B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1533,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA65EBC-FF06-4822-94E6-7004D1310F5E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9610E03-DF48-420B-B1EA-29ED01A56569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287E7B3D-E729-44D0-B057-8944B7098874}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40CF89D-AB83-4298-B87A-C3B1F4D45D47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1589,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{213E0493-61C8-4620-BA1B-8EFBE1B5A888}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4266453A-AEF1-4728-B869-9FB7C7D95EF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC36D08E-45A8-478B-BB30-910FBCC1917C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B467FF3F-03C6-4865-A9D8-84CAB489BC90}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1939,98 +1914,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5497,52 +5472,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="32">
-        <v>13</v>
-      </c>
-      <c r="C2" s="30">
-        <v>8.5967464621081863E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/GARIBALDI.xlsx
+++ b/GARIBALDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2C9D3C-BA86-4173-8644-CA055D03566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AABB334B-724F-4432-AF61-B463300B64B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{556ED8F2-BDAA-408C-AAD6-199F9569E344}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{B738339B-5231-4D47-9CA8-5ACA953554AF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,10 +1212,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4375F006-FD4A-4F8C-BF98-B34C239EDD62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40A992B0-A2D8-4708-8DBC-07C3400EF9A5}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1253,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0EFEA84-38B9-4E48-B86B-825CE84393D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F811A29D-7C3E-4A35-B366-519464B39D9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1316,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCE2EDE-6D73-4A84-9ECC-900C8B2CDEE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9793A2-92D0-47BB-9A7D-DA3907C7D63A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1335,7 +1335,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B45C7C-C645-75DA-EDD0-1C5D57D2CD81}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A818EA8-B001-4D66-65D6-872A4B5D16BF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1384,7 +1384,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBF9585-B737-9FB9-5F8B-5F0827A6F8A7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AA7EC74-6D15-375A-A93D-DC0FAFA3DD2F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63AE6D80-FD98-F74F-EB22-53476A9D7759}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6314BE74-FE84-528C-E157-58AAE432204E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1434,7 +1434,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CEC04D-AA82-4F89-4735-065BEA8BB1B4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E3E103-899E-6483-C76C-1CC0A503F60D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A6CC97F-B954-C63E-A2CE-4DCCF54A293B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D5F1582-F679-4251-0BD7-C3EFB68ABA83}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9610E03-DF48-420B-B1EA-29ED01A56569}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8EE50D2-639C-4783-929B-15921781D708}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40CF89D-AB83-4298-B87A-C3B1F4D45D47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE7ADDA-5B18-4A71-A033-95072D7AE1C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,50 +1571,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4266453A-AEF1-4728-B869-9FB7C7D95EF5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1902,7 +1858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B467FF3F-03C6-4865-A9D8-84CAB489BC90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E850CF-151C-4461-9FB1-D4594D0C73E8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
